--- a/xlsx/互联网托管服务_intext.xlsx
+++ b/xlsx/互联网托管服务_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>互联网托管服务</t>
   </si>
@@ -23,7 +23,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E6%89%98%E7%AE%A1%E6%9C%8D%E5%8A%A1</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_互联网托管服务</t>
+    <t>政策_政策_维基百科_互联网托管服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E4%B8%BB%E6%9C%BA</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F%E8%A8%97%E7%AE%A1</t>
   </si>
   <si>
-    <t>主機託管</t>
+    <t>主机讬管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E7%AB%AF%E9%81%8B%E7%AE%97</t>
   </si>
   <si>
-    <t>雲端運算</t>
+    <t>云端运算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E5%AF%84%E5%AD%98%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>網頁寄存服務</t>
+    <t>网页寄存服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E7%B6%B2%E9%A0%81%E5%AF%84%E5%AD%98%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>免費網頁寄存服務</t>
+    <t>免费网页寄存服务</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shared_web_hosting_service</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A2%E9%9B%86%E5%AF%84%E5%AD%98</t>
   </si>
   <si>
-    <t>叢集寄存</t>
+    <t>丛集寄存</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reseller_web_hosting</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E7%89%87%E5%88%86%E4%BA%AB%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>影片分享網站</t>
+    <t>影片分享网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E6%9C%8D%E5%8B%99%E6%8F%90%E4%BE%9B%E5%95%86</t>
   </si>
   <si>
-    <t>應用服務提供商</t>
+    <t>应用服务提供商</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_network_hosting_service</t>
@@ -173,9 +173,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E4%B8%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>虛擬主機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E9%82%AE%E4%BB%B6</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E7%AB%AF%E8%BF%90%E7%AE%97</t>
   </si>
   <si>
-    <t>云端运算</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D%E6%B3%A8%E5%86%8C%E5%B1%80</t>
   </si>
   <si>
@@ -221,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>維基農場</t>
+    <t>维基农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_service_provider</t>
@@ -1381,7 +1375,7 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1407,10 +1401,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1436,10 +1430,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1465,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1494,10 +1488,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1552,10 +1546,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1581,10 +1575,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1639,10 +1633,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1668,10 +1662,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1697,10 +1691,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
